--- a/biology/Zoologie/Anomaluridae/Anomaluridae.xlsx
+++ b/biology/Zoologie/Anomaluridae/Anomaluridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Anomaluridés (Anomaluridae) sont une famille de mammifères rongeurs souvent appelés écureuils volants[1] bien que ne faisant pas partie des écureuils proprement dits, qui sont de la famille des Sciuridae. Il faut donc les distinguer des vrais écureuils volants qui forment la tribu des Pteromyini au sein des Sciuridés. Les Anomaluridés ne se rencontrent que dans les forêts d'Afrique. Ces rongeurs se déplacent en planant grâce à une membrane, le patagium, qui relie leurs membres antérieurs aux membres postérieurs. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Anomaluridés (Anomaluridae) sont une famille de mammifères rongeurs souvent appelés écureuils volants bien que ne faisant pas partie des écureuils proprement dits, qui sont de la famille des Sciuridae. Il faut donc les distinguer des vrais écureuils volants qui forment la tribu des Pteromyini au sein des Sciuridés. Les Anomaluridés ne se rencontrent que dans les forêts d'Afrique. Ces rongeurs se déplacent en planant grâce à une membrane, le patagium, qui relie leurs membres antérieurs aux membres postérieurs. 
 C'est le zoologiste et paléontologue français François Louis Paul Gervais (1816-1879) qui a créé cette famille en 1849.
 </t>
         </is>
@@ -514,18 +526,57 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des sous-familles
-Selon Mammal Species of the World (version 3, 2005)  (9 oct. 2012)[2] et ITIS      (9 oct. 2012)[3] :
+          <t>Liste des sous-familles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (9 oct. 2012) et ITIS      (9 oct. 2012) :
 sous-famille Anomalurinae Gervais, 1849
-sous-famille Zenkerellinae Matschie, 1898
-Liste des genres
-Selon Mammal Species of the World (version 3, 2005)  (9 oct. 2012)[2] :
+sous-famille Zenkerellinae Matschie, 1898</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anomaluridae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anomaluridae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (9 oct. 2012) :
 sous-famille Anomalurinae
 genre Anomalurus
 sous-famille Zenkerellinae
 genre Idiurus
 genre Zenkerella
-Selon Paleobiology Database                   (9 oct. 2012)[4] :
+Selon Paleobiology Database                   (9 oct. 2012) :
 genre Anomalurus
 genre Idiurus
 genre Kabirmys
